--- a/EDA_Entrega/data/correlation_age_dementia.xlsx
+++ b/EDA_Entrega/data/correlation_age_dementia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F201"/>
+  <dimension ref="A1:G201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,10 +456,15 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>P_Value</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Regression_Coeff</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Intercept</t>
         </is>
@@ -482,12 +487,15 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-0.6534959965294553</v>
+        <v>-0.653495996529508</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>-17750046.50487058</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>1526465086.094905</v>
       </c>
     </row>
@@ -508,12 +516,15 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>-0.6534959925795792</v>
+        <v>-0.6534959925795425</v>
       </c>
       <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
         <v>-17750.0465331371</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>1526465.071416358</v>
       </c>
     </row>
@@ -534,12 +545,15 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-0.06990021279628965</v>
+        <v>-0.06990021279628517</v>
       </c>
       <c r="E4" t="n">
+        <v>1.26515061120111e-102</v>
+      </c>
+      <c r="F4" t="n">
         <v>-0.7247505049710919</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>243.5396156406237</v>
       </c>
     </row>
@@ -560,12 +574,15 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.03923728640334418</v>
+        <v>0.03923728640332654</v>
       </c>
       <c r="E5" t="n">
+        <v>3.340670674335405e-29</v>
+      </c>
+      <c r="F5" t="n">
         <v>0.000235342960558057</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>0.03740267101760301</v>
       </c>
     </row>
@@ -586,12 +603,15 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.05725855907036753</v>
+        <v>0.05725855907039956</v>
       </c>
       <c r="E6" t="n">
+        <v>2.722861474278557e-60</v>
+      </c>
+      <c r="F6" t="n">
         <v>0.000890625146281535</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>0.1514666955916138</v>
       </c>
     </row>
@@ -612,12 +632,15 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>-0.1138888048181705</v>
+        <v>-0.1138888048181687</v>
       </c>
       <c r="E7" t="n">
+        <v>1.054491407971559e-239</v>
+      </c>
+      <c r="F7" t="n">
         <v>-0.003588602068761345</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>4.192632235157518</v>
       </c>
     </row>
@@ -638,12 +661,15 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>-0.01847166867316843</v>
+        <v>-0.0184716686731709</v>
       </c>
       <c r="E8" t="n">
+        <v>9.122721413805141e-08</v>
+      </c>
+      <c r="F8" t="n">
         <v>-0.05452223686498836</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>84.83126648377636</v>
       </c>
     </row>
@@ -664,12 +690,15 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>-0.1852157874542086</v>
+        <v>-0.1852157874542134</v>
       </c>
       <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
         <v>-0.2608149103879124</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>38.98603613105914</v>
       </c>
     </row>
@@ -690,12 +719,15 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>-0.02345504546403048</v>
+        <v>-0.02345504546404783</v>
       </c>
       <c r="E10" t="n">
+        <v>2.01938462127898e-11</v>
+      </c>
+      <c r="F10" t="n">
         <v>-0.005566560507517706</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>2.433748829758452</v>
       </c>
     </row>
@@ -716,12 +748,15 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.09048090686033504</v>
+        <v>0.0904809068603102</v>
       </c>
       <c r="E11" t="n">
+        <v>4.687500516127152e-148</v>
+      </c>
+      <c r="F11" t="n">
         <v>0.001961740334405544</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>0.4324363415316618</v>
       </c>
     </row>
@@ -742,12 +777,15 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.02049204860876254</v>
+        <v>0.02049204860877046</v>
       </c>
       <c r="E12" t="n">
+        <v>4.716467926264402e-09</v>
+      </c>
+      <c r="F12" t="n">
         <v>0.003027857659065931</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>3.7258390733843</v>
       </c>
     </row>
@@ -768,12 +806,15 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>-0.07988784394779494</v>
+        <v>-0.07988784394779803</v>
       </c>
       <c r="E13" t="n">
+        <v>1.629044888027509e-117</v>
+      </c>
+      <c r="F13" t="n">
         <v>-0.1127119766094404</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>30.58886346070469</v>
       </c>
     </row>
@@ -794,12 +835,15 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.04391583633264662</v>
+        <v>0.04391583633266802</v>
       </c>
       <c r="E14" t="n">
+        <v>3.665251989341752e-36</v>
+      </c>
+      <c r="F14" t="n">
         <v>0.00278741698660593</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>0.6893453913043954</v>
       </c>
     </row>
@@ -820,12 +864,15 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.07598627206215669</v>
+        <v>0.07598627206215973</v>
       </c>
       <c r="E15" t="n">
+        <v>3.473014481858396e-107</v>
+      </c>
+      <c r="F15" t="n">
         <v>0.0020083116007055</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>0.3342756821700485</v>
       </c>
     </row>
@@ -846,12 +893,15 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.2344514694269067</v>
+        <v>0.2344514694269169</v>
       </c>
       <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
         <v>0.1560259895916126</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>6.927366337190492</v>
       </c>
     </row>
@@ -872,12 +922,15 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.01209773611960135</v>
+        <v>0.01209773611959816</v>
       </c>
       <c r="E17" t="n">
+        <v>0.0004674838615365467</v>
+      </c>
+      <c r="F17" t="n">
         <v>0.000460818140275094</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>9.271153932485067</v>
       </c>
     </row>
@@ -898,12 +951,15 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>-0.1212843000211904</v>
+        <v>-0.1212843000212088</v>
       </c>
       <c r="E18" t="n">
+        <v>9.614937673262182e-272</v>
+      </c>
+      <c r="F18" t="n">
         <v>-0.4878040574015298</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>221.0885002996253</v>
       </c>
     </row>
@@ -924,12 +980,15 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>-0.02832719328493579</v>
+        <v>-0.0283271932849204</v>
       </c>
       <c r="E19" t="n">
+        <v>2.439723922801835e-16</v>
+      </c>
+      <c r="F19" t="n">
         <v>-0.008547970272956045</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>101.4091463242374</v>
       </c>
     </row>
@@ -950,12 +1009,15 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>-0.04859932770462929</v>
+        <v>-0.04859932770462548</v>
       </c>
       <c r="E20" t="n">
+        <v>6.094109257668825e-45</v>
+      </c>
+      <c r="F20" t="n">
         <v>-1.824997467737965</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>445.8872717014092</v>
       </c>
     </row>
@@ -976,12 +1038,15 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.1014178655076557</v>
+        <v>0.1014178655076753</v>
       </c>
       <c r="E21" t="n">
+        <v>5.15146021780688e-190</v>
+      </c>
+      <c r="F21" t="n">
         <v>0.025554141882753</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
         <v>22.29414256755361</v>
       </c>
     </row>
@@ -1002,12 +1067,15 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.06890018173743453</v>
+        <v>0.06890018173743483</v>
       </c>
       <c r="E22" t="n">
+        <v>1.107538115881868e-88</v>
+      </c>
+      <c r="F22" t="n">
         <v>0.004033465565292749</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
         <v>0.6835387315778507</v>
       </c>
     </row>
@@ -1028,12 +1096,15 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.02525474965717987</v>
+        <v>0.02525474965718104</v>
       </c>
       <c r="E23" t="n">
+        <v>2.732294875614787e-13</v>
+      </c>
+      <c r="F23" t="n">
         <v>0.02452511937260304</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" t="n">
         <v>2.935084704583761</v>
       </c>
     </row>
@@ -1054,12 +1125,15 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.2219499603073883</v>
+        <v>0.2219499603073984</v>
       </c>
       <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
         <v>0.01174874711325167</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24" t="n">
         <v>0.3490443441970082</v>
       </c>
     </row>
@@ -1080,12 +1154,15 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>-0.312203331123847</v>
+        <v>-0.312203331123821</v>
       </c>
       <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
         <v>-0.07107541260958859</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25" t="n">
         <v>7.341434155704247</v>
       </c>
     </row>
@@ -1106,12 +1183,15 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.08802771809292703</v>
+        <v>0.08802771809293983</v>
       </c>
       <c r="E26" t="n">
+        <v>3.259246689966684e-140</v>
+      </c>
+      <c r="F26" t="n">
         <v>0.01840928768633667</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26" t="n">
         <v>1.896150953571567</v>
       </c>
     </row>
@@ -1132,12 +1212,15 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>-0.02917116352384195</v>
+        <v>-0.0291711635238426</v>
       </c>
       <c r="E27" t="n">
+        <v>3.305997691854489e-17</v>
+      </c>
+      <c r="F27" t="n">
         <v>-0.5227133003720279</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27" t="n">
         <v>187.873172798711</v>
       </c>
     </row>
@@ -1158,12 +1241,15 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>-0.005588225155353877</v>
+        <v>-0.005588225155355133</v>
       </c>
       <c r="E28" t="n">
+        <v>0.1063599080967327</v>
+      </c>
+      <c r="F28" t="n">
         <v>-0.0241805472613405</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28" t="n">
         <v>112.3643396246705</v>
       </c>
     </row>
@@ -1184,12 +1270,15 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>-0.1053113085837359</v>
+        <v>-0.1053113085837152</v>
       </c>
       <c r="E29" t="n">
+        <v>1.013817868600103e-200</v>
+      </c>
+      <c r="F29" t="n">
         <v>-0.04389417388531741</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29" t="n">
         <v>44.7238930621964</v>
       </c>
     </row>
@@ -1210,12 +1299,15 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.020125263087325</v>
+        <v>0.02012526308732644</v>
       </c>
       <c r="E30" t="n">
+        <v>5.748760820843681e-09</v>
+      </c>
+      <c r="F30" t="n">
         <v>0.0410134403409262</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30" t="n">
         <v>53.95173004228354</v>
       </c>
     </row>
@@ -1236,12 +1328,15 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>-0.1291043300303318</v>
+        <v>-0.1291043300303134</v>
       </c>
       <c r="E31" t="n">
+        <v>1.44221966993875e-301</v>
+      </c>
+      <c r="F31" t="n">
         <v>-0.01879519443099766</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31" t="n">
         <v>14.94119999085487</v>
       </c>
     </row>
@@ -1262,12 +1357,15 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.07844970784713197</v>
+        <v>0.07844970784716569</v>
       </c>
       <c r="E32" t="n">
+        <v>4.567656502337138e-114</v>
+      </c>
+      <c r="F32" t="n">
         <v>0.00336292200467575</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32" t="n">
         <v>3.96181159453978</v>
       </c>
     </row>
@@ -1288,12 +1386,15 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>-0.1185072032539376</v>
+        <v>-0.1185072032539488</v>
       </c>
       <c r="E33" t="n">
+        <v>6.870499818786359e-253</v>
+      </c>
+      <c r="F33" t="n">
         <v>-0.4113775098052425</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33" t="n">
         <v>129.7632826428134</v>
       </c>
     </row>
@@ -1314,12 +1415,15 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>-0.1611383865564041</v>
+        <v>-0.1611383865564246</v>
       </c>
       <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
         <v>-0.1469235515373723</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34" t="n">
         <v>40.16693726138543</v>
       </c>
     </row>
@@ -1340,12 +1444,15 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.08867781813762568</v>
+        <v>0.08867781813763546</v>
       </c>
       <c r="E35" t="n">
+        <v>2.672993927941078e-142</v>
+      </c>
+      <c r="F35" t="n">
         <v>0.01918098649135792</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35" t="n">
         <v>29.15935731787374</v>
       </c>
     </row>
@@ -1366,12 +1473,15 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>-0.0832887591292293</v>
+        <v>-0.08328875912922523</v>
       </c>
       <c r="E36" t="n">
+        <v>4.894869362616639e-125</v>
+      </c>
+      <c r="F36" t="n">
         <v>-0.01011630168790677</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36" t="n">
         <v>33.45594056168601</v>
       </c>
     </row>
@@ -1392,12 +1502,15 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.1490513110239897</v>
+        <v>0.1490513110239852</v>
       </c>
       <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
         <v>0.09612303487763987</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37" t="n">
         <v>86.55988719743306</v>
       </c>
     </row>
@@ -1418,12 +1531,15 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.1370784604124123</v>
+        <v>0.1370784604124225</v>
       </c>
       <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>0.03222730723691711</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38" t="n">
         <v>6.239111258941469</v>
       </c>
     </row>
@@ -1444,12 +1560,15 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.0100291662807721</v>
+        <v>0.0100291662807746</v>
       </c>
       <c r="E39" t="n">
+        <v>0.00427353980069611</v>
+      </c>
+      <c r="F39" t="n">
         <v>0.0009976688432324682</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39" t="n">
         <v>11.17198469585801</v>
       </c>
     </row>
@@ -1470,12 +1589,15 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.01499296281234791</v>
+        <v>0.01499296281234792</v>
       </c>
       <c r="E40" t="n">
+        <v>1.434510177813759e-05</v>
+      </c>
+      <c r="F40" t="n">
         <v>0.004108923486432828</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40" t="n">
         <v>139.1959251189668</v>
       </c>
     </row>
@@ -1496,12 +1618,15 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.09575829319000687</v>
+        <v>0.09575829319003361</v>
       </c>
       <c r="E41" t="n">
+        <v>1.234790658715638e-165</v>
+      </c>
+      <c r="F41" t="n">
         <v>0.09318949154985373</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41" t="n">
         <v>51.03645065520604</v>
       </c>
     </row>
@@ -1522,12 +1647,15 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.07391222468548979</v>
+        <v>0.07391222468548587</v>
       </c>
       <c r="E42" t="n">
+        <v>2.944003216612998e-99</v>
+      </c>
+      <c r="F42" t="n">
         <v>12.8029670377245</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42" t="n">
         <v>-546.5834597573978</v>
       </c>
     </row>
@@ -1548,12 +1676,15 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.01657888096756534</v>
+        <v>0.01657888096756388</v>
       </c>
       <c r="E43" t="n">
+        <v>2.323326007317955e-06</v>
+      </c>
+      <c r="F43" t="n">
         <v>0.003892384932954143</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43" t="n">
         <v>13.66640768180795</v>
       </c>
     </row>
@@ -1574,12 +1705,15 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>-0.1212946988321959</v>
+        <v>-0.1212946988321982</v>
       </c>
       <c r="E44" t="n">
+        <v>5.885763792174224e-266</v>
+      </c>
+      <c r="F44" t="n">
         <v>-0.7871637634448424</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44" t="n">
         <v>283.6319870105178</v>
       </c>
     </row>
@@ -1600,12 +1734,15 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>-0.18686253687322</v>
+        <v>-0.1868625368732247</v>
       </c>
       <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
         <v>-0.009373739142246913</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45" t="n">
         <v>5.139884931078821</v>
       </c>
     </row>
@@ -1626,12 +1763,15 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.08373531859602666</v>
+        <v>0.08373531859601682</v>
       </c>
       <c r="E46" t="n">
+        <v>2.209139262146712e-127</v>
+      </c>
+      <c r="F46" t="n">
         <v>0.01167123732827764</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46" t="n">
         <v>13.18172086202853</v>
       </c>
     </row>
@@ -1652,12 +1792,15 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>-0.06543547764751159</v>
+        <v>-0.06543547764751642</v>
       </c>
       <c r="E47" t="n">
+        <v>4.211405789598002e-80</v>
+      </c>
+      <c r="F47" t="n">
         <v>-0.6456052598248846</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47" t="n">
         <v>195.0492297228215</v>
       </c>
     </row>
@@ -1678,12 +1821,15 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>-0.153486738099261</v>
+        <v>-0.1534867380992692</v>
       </c>
       <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
         <v>-0.00672115460954996</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48" t="n">
         <v>7.339655548583941</v>
       </c>
     </row>
@@ -1704,12 +1850,15 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.003074640520834623</v>
+        <v>0.003074640520833409</v>
       </c>
       <c r="E49" t="n">
+        <v>0.3795165738582256</v>
+      </c>
+      <c r="F49" t="n">
         <v>0.0009119266924188489</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49" t="n">
         <v>6.747570735593114</v>
       </c>
     </row>
@@ -1730,12 +1879,15 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>-0.005161735807605066</v>
+        <v>-0.005161735807604033</v>
       </c>
       <c r="E50" t="n">
+        <v>0.1370557023347631</v>
+      </c>
+      <c r="F50" t="n">
         <v>-0.003114337171738306</v>
       </c>
-      <c r="F50" t="n">
+      <c r="G50" t="n">
         <v>2.159771726129394</v>
       </c>
     </row>
@@ -1756,12 +1908,15 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0.1466024503603885</v>
+        <v>0.1466024503603618</v>
       </c>
       <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
         <v>0.1909470880242719</v>
       </c>
-      <c r="F51" t="n">
+      <c r="G51" t="n">
         <v>17.60016406446815</v>
       </c>
     </row>
@@ -1782,12 +1937,15 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>-0.1744894404006723</v>
+        <v>-0.1744894404006603</v>
       </c>
       <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
         <v>-247.5202020183436</v>
       </c>
-      <c r="F52" t="n">
+      <c r="G52" t="n">
         <v>64982.22674569923</v>
       </c>
     </row>
@@ -1808,12 +1966,15 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0.02064975529350565</v>
+        <v>0.02064975529350244</v>
       </c>
       <c r="E53" t="n">
+        <v>2.414377894117909e-09</v>
+      </c>
+      <c r="F53" t="n">
         <v>0.01392587071892367</v>
       </c>
-      <c r="F53" t="n">
+      <c r="G53" t="n">
         <v>3.099136517425211</v>
       </c>
     </row>
@@ -1834,12 +1995,15 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>-0.0181818834930624</v>
+        <v>-0.01818188349305842</v>
       </c>
       <c r="E54" t="n">
+        <v>1.48926514892873e-07</v>
+      </c>
+      <c r="F54" t="n">
         <v>-0.8645997026042679</v>
       </c>
-      <c r="F54" t="n">
+      <c r="G54" t="n">
         <v>655.7579575764279</v>
       </c>
     </row>
@@ -1860,12 +2024,15 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0.03504285539568899</v>
+        <v>0.03504285539568056</v>
       </c>
       <c r="E55" t="n">
+        <v>4.135977345497732e-24</v>
+      </c>
+      <c r="F55" t="n">
         <v>0.1872658661806545</v>
       </c>
-      <c r="F55" t="n">
+      <c r="G55" t="n">
         <v>-5.096496776348264</v>
       </c>
     </row>
@@ -1886,12 +2053,15 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0.1010654320557882</v>
+        <v>0.101065432055765</v>
       </c>
       <c r="E56" t="n">
+        <v>2.054623639378354e-188</v>
+      </c>
+      <c r="F56" t="n">
         <v>17.90804347398274</v>
       </c>
-      <c r="F56" t="n">
+      <c r="G56" t="n">
         <v>630.4241627176209</v>
       </c>
     </row>
@@ -1912,12 +2082,15 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>-0.169829970367569</v>
+        <v>-0.1698299703675558</v>
       </c>
       <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
         <v>-0.6516690810553433</v>
       </c>
-      <c r="F57" t="n">
+      <c r="G57" t="n">
         <v>147.8639300815445</v>
       </c>
     </row>
@@ -1938,12 +2111,15 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>-0.03372067370578834</v>
+        <v>-0.03372067370579022</v>
       </c>
       <c r="E58" t="n">
+        <v>8.165577633772405e-17</v>
+      </c>
+      <c r="F58" t="n">
         <v>-0.001904512524393404</v>
       </c>
-      <c r="F58" t="n">
+      <c r="G58" t="n">
         <v>1.062497669939443</v>
       </c>
     </row>
@@ -1964,12 +2140,15 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0.05138220520017559</v>
+        <v>0.05138220520017082</v>
       </c>
       <c r="E59" t="n">
+        <v>8.319485961960107e-39</v>
+      </c>
+      <c r="F59" t="n">
         <v>0.02942954989142673</v>
       </c>
-      <c r="F59" t="n">
+      <c r="G59" t="n">
         <v>11.07647320503316</v>
       </c>
     </row>
@@ -1990,12 +2169,15 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>-0.1332327327319527</v>
+        <v>-0.1332327327319635</v>
       </c>
       <c r="E60" t="n">
+        <v>2.439091310280384e-274</v>
+      </c>
+      <c r="F60" t="n">
         <v>-133.04993873102</v>
       </c>
-      <c r="F60" t="n">
+      <c r="G60" t="n">
         <v>45356.00681778134</v>
       </c>
     </row>
@@ -2016,12 +2198,15 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0.0008974146184590143</v>
+        <v>0.0008974146184588841</v>
       </c>
       <c r="E61" t="n">
+        <v>0.8124144845983677</v>
+      </c>
+      <c r="F61" t="n">
         <v>0.005745825182501747</v>
       </c>
-      <c r="F61" t="n">
+      <c r="G61" t="n">
         <v>221.9954179427627</v>
       </c>
     </row>
@@ -2042,12 +2227,15 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0.03067311789028719</v>
+        <v>0.03067311789028586</v>
       </c>
       <c r="E62" t="n">
+        <v>1.807110974233048e-17</v>
+      </c>
+      <c r="F62" t="n">
         <v>0.0001609835708812615</v>
       </c>
-      <c r="F62" t="n">
+      <c r="G62" t="n">
         <v>0.03966446945470539</v>
       </c>
     </row>
@@ -2068,12 +2256,15 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0.03895641393296244</v>
+        <v>0.03895641393295912</v>
       </c>
       <c r="E63" t="n">
+        <v>3.354219910543267e-27</v>
+      </c>
+      <c r="F63" t="n">
         <v>0.0001253093836787654</v>
       </c>
-      <c r="F63" t="n">
+      <c r="G63" t="n">
         <v>0.02799519239351428</v>
       </c>
     </row>
@@ -2094,12 +2285,15 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>-0.001604882462376293</v>
+        <v>-0.001604882462376089</v>
       </c>
       <c r="E64" t="n">
+        <v>0.6564242904515027</v>
+      </c>
+      <c r="F64" t="n">
         <v>-3.789770331666668e-06</v>
       </c>
-      <c r="F64" t="n">
+      <c r="G64" t="n">
         <v>0.007241257747067736</v>
       </c>
     </row>
@@ -2120,12 +2314,15 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0.08059364854337094</v>
+        <v>0.08059364854336809</v>
       </c>
       <c r="E65" t="n">
+        <v>6.228893073881162e-111</v>
+      </c>
+      <c r="F65" t="n">
         <v>0.001408274404809893</v>
       </c>
-      <c r="F65" t="n">
+      <c r="G65" t="n">
         <v>0.1340283023684798</v>
       </c>
     </row>
@@ -2146,12 +2343,15 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0.01630821843611967</v>
+        <v>0.01630821843612219</v>
       </c>
       <c r="E66" t="n">
+        <v>6.15517932885398e-06</v>
+      </c>
+      <c r="F66" t="n">
         <v>3.936088996815795e-06</v>
       </c>
-      <c r="F66" t="n">
+      <c r="G66" t="n">
         <v>0.001406463677693171</v>
       </c>
     </row>
@@ -2172,12 +2372,15 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0.07800130696334771</v>
+        <v>0.07800130696335433</v>
       </c>
       <c r="E67" t="n">
+        <v>5.43030951334063e-104</v>
+      </c>
+      <c r="F67" t="n">
         <v>0.001311160350378734</v>
       </c>
-      <c r="F67" t="n">
+      <c r="G67" t="n">
         <v>0.1276689292960272</v>
       </c>
     </row>
@@ -2198,12 +2401,15 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0.0969382669085769</v>
+        <v>0.0969382669085741</v>
       </c>
       <c r="E68" t="n">
+        <v>7.920695767131506e-160</v>
+      </c>
+      <c r="F68" t="n">
         <v>0.001467577070045947</v>
       </c>
-      <c r="F68" t="n">
+      <c r="G68" t="n">
         <v>0.09514277398810649</v>
       </c>
     </row>
@@ -2224,12 +2430,15 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0.09424548667638523</v>
+        <v>0.09424548667638283</v>
       </c>
       <c r="E69" t="n">
+        <v>4.068164298025039e-151</v>
+      </c>
+      <c r="F69" t="n">
         <v>0.001353386835714987</v>
       </c>
-      <c r="F69" t="n">
+      <c r="G69" t="n">
         <v>0.09274792614619941</v>
       </c>
     </row>
@@ -2250,12 +2459,15 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>0.092264775007018</v>
+        <v>0.09226477500702017</v>
       </c>
       <c r="E70" t="n">
+        <v>6.871391178808931e-145</v>
+      </c>
+      <c r="F70" t="n">
         <v>0.0001414343590875978</v>
       </c>
-      <c r="F70" t="n">
+      <c r="G70" t="n">
         <v>-0.001857639362624576</v>
       </c>
     </row>
@@ -2276,12 +2488,15 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>0.02772581969269169</v>
+        <v>0.02772581969269496</v>
       </c>
       <c r="E71" t="n">
+        <v>7.769650665401224e-15</v>
+      </c>
+      <c r="F71" t="n">
         <v>0.0003531946177636774</v>
       </c>
-      <c r="F71" t="n">
+      <c r="G71" t="n">
         <v>0.6887456815372988</v>
       </c>
     </row>
@@ -2302,12 +2517,15 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>-0.05253216038028664</v>
+        <v>-0.05253216038029178</v>
       </c>
       <c r="E72" t="n">
+        <v>4.040209550470508e-49</v>
+      </c>
+      <c r="F72" t="n">
         <v>-0.0004904600429756193</v>
       </c>
-      <c r="F72" t="n">
+      <c r="G72" t="n">
         <v>0.1896985868674192</v>
       </c>
     </row>
@@ -2328,12 +2546,15 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>-0.02914977155223954</v>
+        <v>-0.02914977155223911</v>
       </c>
       <c r="E73" t="n">
+        <v>3.058882572904097e-16</v>
+      </c>
+      <c r="F73" t="n">
         <v>-4.260645799966331e-05</v>
       </c>
-      <c r="F73" t="n">
+      <c r="G73" t="n">
         <v>0.01147435174779388</v>
       </c>
     </row>
@@ -2354,12 +2575,15 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>-0.0005810280964299193</v>
+        <v>-0.0005810280964297785</v>
       </c>
       <c r="E74" t="n">
+        <v>0.8706494592020662</v>
+      </c>
+      <c r="F74" t="n">
         <v>-4.136846095661301e-06</v>
       </c>
-      <c r="F74" t="n">
+      <c r="G74" t="n">
         <v>0.9340280142973175</v>
       </c>
     </row>
@@ -2380,12 +2604,15 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>-0.008799536783847548</v>
+        <v>-0.008799536783846974</v>
       </c>
       <c r="E75" t="n">
+        <v>0.01365717669185396</v>
+      </c>
+      <c r="F75" t="n">
         <v>-7.237383464888181e-05</v>
       </c>
-      <c r="F75" t="n">
+      <c r="G75" t="n">
         <v>0.9580460813669078</v>
       </c>
     </row>
@@ -2406,12 +2633,15 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>0.09058276571092362</v>
+        <v>0.09058276571091328</v>
       </c>
       <c r="E76" t="n">
+        <v>9.458158676405979e-143</v>
+      </c>
+      <c r="F76" t="n">
         <v>0.0003790715854961729</v>
       </c>
-      <c r="F76" t="n">
+      <c r="G76" t="n">
         <v>0.01313666541968606</v>
       </c>
     </row>
@@ -2432,12 +2662,15 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>0.007207343236882643</v>
+        <v>0.007207343236883318</v>
       </c>
       <c r="E77" t="n">
+        <v>0.044022581481613</v>
+      </c>
+      <c r="F77" t="n">
         <v>0.001474893520780647</v>
       </c>
-      <c r="F77" t="n">
+      <c r="G77" t="n">
         <v>0.07924485653578166</v>
       </c>
     </row>
@@ -2458,12 +2691,15 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>-0.04738609304840077</v>
+        <v>-0.04738609304840234</v>
       </c>
       <c r="E78" t="n">
+        <v>9.989178028337434e-33</v>
+      </c>
+      <c r="F78" t="n">
         <v>-0.000133714687927316</v>
       </c>
-      <c r="F78" t="n">
+      <c r="G78" t="n">
         <v>0.03669752160736126</v>
       </c>
     </row>
@@ -2484,12 +2720,15 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>-0.2107674285942377</v>
+        <v>-0.2107674285942367</v>
       </c>
       <c r="E79" t="n">
+        <v>0</v>
+      </c>
+      <c r="F79" t="n">
         <v>-0.004233430197106063</v>
       </c>
-      <c r="F79" t="n">
+      <c r="G79" t="n">
         <v>0.6356603178745801</v>
       </c>
     </row>
@@ -2510,12 +2749,15 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>-0.1034780786729212</v>
+        <v>-0.1034780786729219</v>
       </c>
       <c r="E80" t="n">
+        <v>8.465283169429061e-185</v>
+      </c>
+      <c r="F80" t="n">
         <v>-0.002646197086846221</v>
       </c>
-      <c r="F80" t="n">
+      <c r="G80" t="n">
         <v>0.5301735463247457</v>
       </c>
     </row>
@@ -2536,12 +2778,15 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>-0.05867123608832833</v>
+        <v>-0.05867123608832824</v>
       </c>
       <c r="E81" t="n">
+        <v>2.869199623167636e-60</v>
+      </c>
+      <c r="F81" t="n">
         <v>-0.0004095999662459302</v>
       </c>
-      <c r="F81" t="n">
+      <c r="G81" t="n">
         <v>0.06245486777621986</v>
       </c>
     </row>
@@ -2562,12 +2807,15 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>-0.1897024910614864</v>
+        <v>-0.189702491061494</v>
       </c>
       <c r="E82" t="n">
+        <v>0</v>
+      </c>
+      <c r="F82" t="n">
         <v>-0.008987751798352756</v>
       </c>
-      <c r="F82" t="n">
+      <c r="G82" t="n">
         <v>1.570937284548532</v>
       </c>
     </row>
@@ -2588,12 +2836,15 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>-0.0100153743142995</v>
+        <v>-0.01001537431430042</v>
       </c>
       <c r="E83" t="n">
+        <v>0.005183691535673829</v>
+      </c>
+      <c r="F83" t="n">
         <v>-0.0001065959706864534</v>
       </c>
-      <c r="F83" t="n">
+      <c r="G83" t="n">
         <v>0.025670803840706</v>
       </c>
     </row>
@@ -2614,12 +2865,15 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>0.0137732337777619</v>
+        <v>0.01377323377776308</v>
       </c>
       <c r="E84" t="n">
+        <v>0.000120880485909064</v>
+      </c>
+      <c r="F84" t="n">
         <v>0.00267246513935588</v>
       </c>
-      <c r="F84" t="n">
+      <c r="G84" t="n">
         <v>-0.13990885622236</v>
       </c>
     </row>
@@ -2640,12 +2894,15 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>-0.3335777256519695</v>
+        <v>-0.3335777256519615</v>
       </c>
       <c r="E85" t="n">
+        <v>0</v>
+      </c>
+      <c r="F85" t="n">
         <v>-0.002251788842528015</v>
       </c>
-      <c r="F85" t="n">
+      <c r="G85" t="n">
         <v>0.2214480396233335</v>
       </c>
     </row>
@@ -2666,12 +2923,15 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>-0.09237817230694005</v>
+        <v>-0.09237817230694001</v>
       </c>
       <c r="E86" t="n">
+        <v>5.855210569764837e-147</v>
+      </c>
+      <c r="F86" t="n">
         <v>-0.002882524826453423</v>
       </c>
-      <c r="F86" t="n">
+      <c r="G86" t="n">
         <v>0.6268059287150731</v>
       </c>
     </row>
@@ -2692,12 +2952,15 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>-0.198275402713494</v>
+        <v>-0.1982754027134946</v>
       </c>
       <c r="E87" t="n">
+        <v>0</v>
+      </c>
+      <c r="F87" t="n">
         <v>-0.01250285652994744</v>
       </c>
-      <c r="F87" t="n">
+      <c r="G87" t="n">
         <v>2.259564248326992</v>
       </c>
     </row>
@@ -2718,12 +2981,15 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>-0.1279950468907486</v>
+        <v>-0.1279950468907578</v>
       </c>
       <c r="E88" t="n">
+        <v>8.522318649391166e-282</v>
+      </c>
+      <c r="F88" t="n">
         <v>-0.001423399245226418</v>
       </c>
-      <c r="F88" t="n">
+      <c r="G88" t="n">
         <v>0.1907985862348798</v>
       </c>
     </row>
@@ -2744,12 +3010,15 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>-0.08985710580933477</v>
+        <v>-0.08985710580934075</v>
       </c>
       <c r="E89" t="n">
+        <v>1.16792067080231e-142</v>
+      </c>
+      <c r="F89" t="n">
         <v>-0.0004622894416838636</v>
       </c>
-      <c r="F89" t="n">
+      <c r="G89" t="n">
         <v>0.1008384191880523</v>
       </c>
     </row>
@@ -2770,12 +3039,15 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>0.01864780026227382</v>
+        <v>0.01864780026227494</v>
       </c>
       <c r="E90" t="n">
+        <v>1.384837227170854e-07</v>
+      </c>
+      <c r="F90" t="n">
         <v>0.0002178386472287427</v>
       </c>
-      <c r="F90" t="n">
+      <c r="G90" t="n">
         <v>0.2321893531115655</v>
       </c>
     </row>
@@ -2796,12 +3068,15 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>-0.02089690083221881</v>
+        <v>-0.02089690083222009</v>
       </c>
       <c r="E91" t="n">
+        <v>3.576878460590498e-09</v>
+      </c>
+      <c r="F91" t="n">
         <v>-0.0002831084047534039</v>
       </c>
-      <c r="F91" t="n">
+      <c r="G91" t="n">
         <v>0.7002998058094588</v>
       </c>
     </row>
@@ -2822,12 +3097,15 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>-0.1590694530231456</v>
+        <v>-0.1590694530231648</v>
       </c>
       <c r="E92" t="n">
+        <v>0</v>
+      </c>
+      <c r="F92" t="n">
         <v>-0.002083160014712942</v>
       </c>
-      <c r="F92" t="n">
+      <c r="G92" t="n">
         <v>0.8402094021346831</v>
       </c>
     </row>
@@ -2848,12 +3126,15 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>-0.06406782754640525</v>
+        <v>-0.06406782754641063</v>
       </c>
       <c r="E93" t="n">
+        <v>3.571216412437324e-73</v>
+      </c>
+      <c r="F93" t="n">
         <v>-0.001075986119804701</v>
       </c>
-      <c r="F93" t="n">
+      <c r="G93" t="n">
         <v>0.7234515370698756</v>
       </c>
     </row>
@@ -2874,12 +3155,15 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>0.09423803790391042</v>
+        <v>0.09423803790390886</v>
       </c>
       <c r="E94" t="n">
+        <v>4.035633429316052e-151</v>
+      </c>
+      <c r="F94" t="n">
         <v>0.0002419426220923792</v>
       </c>
-      <c r="F94" t="n">
+      <c r="G94" t="n">
         <v>0.01875843246186839</v>
       </c>
     </row>
@@ -2900,12 +3184,15 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>0.1076711108255802</v>
+        <v>0.1076711108255795</v>
       </c>
       <c r="E95" t="n">
+        <v>6.511806572447309e-197</v>
+      </c>
+      <c r="F95" t="n">
         <v>0.0002265170493293422</v>
       </c>
-      <c r="F95" t="n">
+      <c r="G95" t="n">
         <v>0.01382927084155085</v>
       </c>
     </row>
@@ -2926,12 +3213,15 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>0.04858092528833334</v>
+        <v>0.04858092528833471</v>
       </c>
       <c r="E96" t="n">
+        <v>2.161309979440713e-41</v>
+      </c>
+      <c r="F96" t="n">
         <v>2.872751232440704e-05</v>
       </c>
-      <c r="F96" t="n">
+      <c r="G96" t="n">
         <v>0.005796063421310772</v>
       </c>
     </row>
@@ -2952,12 +3242,15 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>-0.007512904155684352</v>
+        <v>-0.007512904155684908</v>
       </c>
       <c r="E97" t="n">
+        <v>0.08724028922745879</v>
+      </c>
+      <c r="F97" t="n">
         <v>-0.0007783915431091139</v>
       </c>
-      <c r="F97" t="n">
+      <c r="G97" t="n">
         <v>6.028826254010752</v>
       </c>
     </row>
@@ -2978,12 +3271,15 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>0.05482601593818201</v>
+        <v>0.05482601593817858</v>
       </c>
       <c r="E98" t="n">
+        <v>6.449117472271814e-38</v>
+      </c>
+      <c r="F98" t="n">
         <v>0.09876847942894926</v>
       </c>
-      <c r="F98" t="n">
+      <c r="G98" t="n">
         <v>47.64758014634695</v>
       </c>
     </row>
@@ -3004,12 +3300,15 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>-0.09624246587080199</v>
+        <v>-0.09624246587081138</v>
       </c>
       <c r="E99" t="n">
+        <v>2.416123922301373e-115</v>
+      </c>
+      <c r="F99" t="n">
         <v>-0.3900843795217218</v>
       </c>
-      <c r="F99" t="n">
+      <c r="G99" t="n">
         <v>215.7558368190387</v>
       </c>
     </row>
@@ -3030,12 +3329,15 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>-0.009065341665706056</v>
+        <v>-0.009065341665706989</v>
       </c>
       <c r="E100" t="n">
+        <v>0.03111605065084161</v>
+      </c>
+      <c r="F100" t="n">
         <v>-0.003687803187456777</v>
       </c>
-      <c r="F100" t="n">
+      <c r="G100" t="n">
         <v>3.664168324516154</v>
       </c>
     </row>
@@ -3056,12 +3358,15 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>0.2350178042015165</v>
+        <v>0.2350178042015249</v>
       </c>
       <c r="E101" t="n">
+        <v>0</v>
+      </c>
+      <c r="F101" t="n">
         <v>0.01204308037168787</v>
       </c>
-      <c r="F101" t="n">
+      <c r="G101" t="n">
         <v>0.3004299660985297</v>
       </c>
     </row>
@@ -3082,12 +3387,15 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>-0.7126067815744852</v>
+        <v>-0.7126067815744781</v>
       </c>
       <c r="E102" t="n">
+        <v>1.657102166203431e-314</v>
+      </c>
+      <c r="F102" t="n">
         <v>-13158365.95231952</v>
       </c>
-      <c r="F102" t="n">
+      <c r="G102" t="n">
         <v>1198602880.172976</v>
       </c>
     </row>
@@ -3108,12 +3416,15 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>-0.7126067782587726</v>
+        <v>-0.7126067782587735</v>
       </c>
       <c r="E103" t="n">
+        <v>1.657118307328081e-314</v>
+      </c>
+      <c r="F103" t="n">
         <v>-13158.36598232221</v>
       </c>
-      <c r="F103" t="n">
+      <c r="G103" t="n">
         <v>1198602.866756503</v>
       </c>
     </row>
@@ -3134,12 +3445,15 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>-0.07096531688392722</v>
+        <v>-0.07096531688392659</v>
       </c>
       <c r="E104" t="n">
+        <v>0.001376928295886966</v>
+      </c>
+      <c r="F104" t="n">
         <v>-0.584299674626127</v>
       </c>
-      <c r="F104" t="n">
+      <c r="G104" t="n">
         <v>236.8609606640854</v>
       </c>
     </row>
@@ -3160,12 +3474,15 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>0.1701429222040168</v>
+        <v>0.1701429222040166</v>
       </c>
       <c r="E105" t="n">
+        <v>7.937340187031813e-12</v>
+      </c>
+      <c r="F105" t="n">
         <v>0.0008351049592315988</v>
       </c>
-      <c r="F105" t="n">
+      <c r="G105" t="n">
         <v>0.0003486128621215112</v>
       </c>
     </row>
@@ -3186,12 +3503,15 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>0.09796857127727839</v>
+        <v>0.09796857127727786</v>
       </c>
       <c r="E106" t="n">
+        <v>8.892523362104519e-05</v>
+      </c>
+      <c r="F106" t="n">
         <v>0.001331832147551682</v>
       </c>
-      <c r="F106" t="n">
+      <c r="G106" t="n">
         <v>0.1027211755739469</v>
       </c>
     </row>
@@ -3212,12 +3532,15 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>-0.1141769714118453</v>
+        <v>-0.1141769714118458</v>
       </c>
       <c r="E107" t="n">
+        <v>2.075243874096358e-06</v>
+      </c>
+      <c r="F107" t="n">
         <v>-0.003310281335828356</v>
       </c>
-      <c r="F107" t="n">
+      <c r="G107" t="n">
         <v>4.120829624832163</v>
       </c>
     </row>
@@ -3238,12 +3561,15 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>0.06928096585972432</v>
+        <v>0.06928096585972472</v>
       </c>
       <c r="E108" t="n">
+        <v>0.004066291436198756</v>
+      </c>
+      <c r="F108" t="n">
         <v>0.1390488309105345</v>
       </c>
-      <c r="F108" t="n">
+      <c r="G108" t="n">
         <v>72.02047229482869</v>
       </c>
     </row>
@@ -3264,12 +3590,15 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>-0.2903613952299938</v>
+        <v>-0.2903613952299917</v>
       </c>
       <c r="E109" t="n">
+        <v>1.191991859409895e-34</v>
+      </c>
+      <c r="F109" t="n">
         <v>-0.2445113505979623</v>
       </c>
-      <c r="F109" t="n">
+      <c r="G109" t="n">
         <v>36.63663065447956</v>
       </c>
     </row>
@@ -3290,12 +3619,15 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>-0.188652514548866</v>
+        <v>-0.1886525145488674</v>
       </c>
       <c r="E110" t="n">
+        <v>3.037684019694272e-14</v>
+      </c>
+      <c r="F110" t="n">
         <v>-0.02028154481044252</v>
       </c>
-      <c r="F110" t="n">
+      <c r="G110" t="n">
         <v>3.520940085777462</v>
       </c>
     </row>
@@ -3316,12 +3648,15 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>0.004647476805221825</v>
+        <v>0.00464747680522181</v>
       </c>
       <c r="E111" t="n">
+        <v>0.8528652196715973</v>
+      </c>
+      <c r="F111" t="n">
         <v>6.551225139489979e-05</v>
       </c>
-      <c r="F111" t="n">
+      <c r="G111" t="n">
         <v>0.5599305136107178</v>
       </c>
     </row>
@@ -3342,12 +3677,15 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>-0.1059981979158621</v>
+        <v>-0.1059981979158626</v>
       </c>
       <c r="E112" t="n">
+        <v>2.216017538807277e-05</v>
+      </c>
+      <c r="F112" t="n">
         <v>-0.01246024409166338</v>
       </c>
-      <c r="F112" t="n">
+      <c r="G112" t="n">
         <v>4.905742830217759</v>
       </c>
     </row>
@@ -3368,12 +3706,15 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>-0.06554080905820191</v>
+        <v>-0.065540809058202</v>
       </c>
       <c r="E113" t="n">
+        <v>0.006640388501945216</v>
+      </c>
+      <c r="F113" t="n">
         <v>-0.05527135181331128</v>
       </c>
-      <c r="F113" t="n">
+      <c r="G113" t="n">
         <v>25.62220920595647</v>
       </c>
     </row>
@@ -3394,12 +3735,15 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>0.2443283083868643</v>
+        <v>0.2443283083868692</v>
       </c>
       <c r="E114" t="n">
+        <v>4.136867195663201e-23</v>
+      </c>
+      <c r="F114" t="n">
         <v>0.01207946641637381</v>
       </c>
-      <c r="F114" t="n">
+      <c r="G114" t="n">
         <v>0.006313828359846174</v>
       </c>
     </row>
@@ -3420,12 +3764,15 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>0.2599107074898164</v>
+        <v>0.2599107074898185</v>
       </c>
       <c r="E115" t="n">
+        <v>6.363086005333398e-28</v>
+      </c>
+      <c r="F115" t="n">
         <v>0.004267811959042631</v>
       </c>
-      <c r="F115" t="n">
+      <c r="G115" t="n">
         <v>0.1164242719328595</v>
       </c>
     </row>
@@ -3446,12 +3793,15 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>0.08250615933936886</v>
+        <v>0.08250615933936908</v>
       </c>
       <c r="E116" t="n">
+        <v>0.0006167841496496211</v>
+      </c>
+      <c r="F116" t="n">
         <v>0.05598878969321042</v>
       </c>
-      <c r="F116" t="n">
+      <c r="G116" t="n">
         <v>15.2521193614826</v>
       </c>
     </row>
@@ -3472,12 +3822,15 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>-0.1079193207368466</v>
+        <v>-0.1079193207368462</v>
       </c>
       <c r="E117" t="n">
+        <v>7.68383169014229e-06</v>
+      </c>
+      <c r="F117" t="n">
         <v>-0.003623226693163578</v>
       </c>
-      <c r="F117" t="n">
+      <c r="G117" t="n">
         <v>9.499233057813063</v>
       </c>
     </row>
@@ -3498,12 +3851,15 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>-0.04091883960621037</v>
+        <v>-0.04091883960621044</v>
       </c>
       <c r="E118" t="n">
+        <v>0.08997852960660231</v>
+      </c>
+      <c r="F118" t="n">
         <v>-0.1448736962627704</v>
       </c>
-      <c r="F118" t="n">
+      <c r="G118" t="n">
         <v>196.9577688205126</v>
       </c>
     </row>
@@ -3524,12 +3880,15 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>0.08516324940987101</v>
+        <v>0.08516324940987169</v>
       </c>
       <c r="E119" t="n">
+        <v>0.0004096874581592861</v>
+      </c>
+      <c r="F119" t="n">
         <v>0.02062213235721786</v>
       </c>
-      <c r="F119" t="n">
+      <c r="G119" t="n">
         <v>99.63212229256121</v>
       </c>
     </row>
@@ -3550,12 +3909,15 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>-0.1455488099457427</v>
+        <v>-0.1455488099457421</v>
       </c>
       <c r="E120" t="n">
+        <v>1.340268043374849e-09</v>
+      </c>
+      <c r="F120" t="n">
         <v>-4.44237733975041</v>
       </c>
-      <c r="F120" t="n">
+      <c r="G120" t="n">
         <v>701.5796198575457</v>
       </c>
     </row>
@@ -3576,12 +3938,15 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>0.1902855206639129</v>
+        <v>0.1902855206639097</v>
       </c>
       <c r="E121" t="n">
+        <v>2.095274861294823e-15</v>
+      </c>
+      <c r="F121" t="n">
         <v>0.03991055359464037</v>
       </c>
-      <c r="F121" t="n">
+      <c r="G121" t="n">
         <v>21.24763596488902</v>
       </c>
     </row>
@@ -3602,12 +3967,15 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>0.1278509273171753</v>
+        <v>0.127850927317175</v>
       </c>
       <c r="E122" t="n">
+        <v>1.053529767889833e-07</v>
+      </c>
+      <c r="F122" t="n">
         <v>0.00448014873216894</v>
       </c>
-      <c r="F122" t="n">
+      <c r="G122" t="n">
         <v>0.7023604992370913</v>
       </c>
     </row>
@@ -3628,12 +3996,15 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>0.07716596377080841</v>
+        <v>0.07716596377080799</v>
       </c>
       <c r="E123" t="n">
+        <v>0.001365660174016448</v>
+      </c>
+      <c r="F123" t="n">
         <v>0.07987491885203558</v>
       </c>
-      <c r="F123" t="n">
+      <c r="G123" t="n">
         <v>-0.617653971603227</v>
       </c>
     </row>
@@ -3657,9 +4028,12 @@
         <v>0.1680134678952269</v>
       </c>
       <c r="E124" t="n">
+        <v>2.404402170226393e-12</v>
+      </c>
+      <c r="F124" t="n">
         <v>0.007604061821181006</v>
       </c>
-      <c r="F124" t="n">
+      <c r="G124" t="n">
         <v>0.7240828173564441</v>
       </c>
     </row>
@@ -3680,12 +4054,15 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>-0.3119895026362332</v>
+        <v>-0.3119895026362317</v>
       </c>
       <c r="E125" t="n">
+        <v>6.425119014852458e-40</v>
+      </c>
+      <c r="F125" t="n">
         <v>-0.03810702390723693</v>
       </c>
-      <c r="F125" t="n">
+      <c r="G125" t="n">
         <v>4.656921033337536</v>
       </c>
     </row>
@@ -3706,12 +4083,15 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>0.2223721921147146</v>
+        <v>0.2223721921147155</v>
       </c>
       <c r="E126" t="n">
+        <v>2.546127944109894e-19</v>
+      </c>
+      <c r="F126" t="n">
         <v>0.03347016823770638</v>
       </c>
-      <c r="F126" t="n">
+      <c r="G126" t="n">
         <v>0.5260695919391067</v>
       </c>
     </row>
@@ -3732,12 +4112,15 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>0.1228227700873176</v>
+        <v>0.1228227700873183</v>
       </c>
       <c r="E127" t="n">
+        <v>3.281954772941971e-07</v>
+      </c>
+      <c r="F127" t="n">
         <v>1.310192385025427</v>
       </c>
-      <c r="F127" t="n">
+      <c r="G127" t="n">
         <v>39.29260737207335</v>
       </c>
     </row>
@@ -3758,12 +4141,15 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>-0.09505297884332718</v>
+        <v>-0.09505297884332649</v>
       </c>
       <c r="E128" t="n">
+        <v>8.221870360853787e-05</v>
+      </c>
+      <c r="F128" t="n">
         <v>-0.3160053017809233</v>
       </c>
-      <c r="F128" t="n">
+      <c r="G128" t="n">
         <v>134.3158300649293</v>
       </c>
     </row>
@@ -3784,12 +4170,15 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>-0.06232868293649092</v>
+        <v>-0.06232868293649027</v>
       </c>
       <c r="E129" t="n">
+        <v>0.01089205841104542</v>
+      </c>
+      <c r="F129" t="n">
         <v>-0.02528434365138908</v>
       </c>
-      <c r="F129" t="n">
+      <c r="G129" t="n">
         <v>42.69983841818905</v>
       </c>
     </row>
@@ -3810,12 +4199,15 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>0.1492922905725405</v>
+        <v>0.1492922905725413</v>
       </c>
       <c r="E130" t="n">
+        <v>4.966234652720795e-10</v>
+      </c>
+      <c r="F130" t="n">
         <v>0.1942781117780946</v>
       </c>
-      <c r="F130" t="n">
+      <c r="G130" t="n">
         <v>41.55135676556823</v>
       </c>
     </row>
@@ -3836,12 +4228,15 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>-0.03982646448831395</v>
+        <v>-0.03982646448831406</v>
       </c>
       <c r="E131" t="n">
+        <v>0.1039529385127301</v>
+      </c>
+      <c r="F131" t="n">
         <v>-0.005225728737644097</v>
       </c>
-      <c r="F131" t="n">
+      <c r="G131" t="n">
         <v>13.62015739162968</v>
       </c>
     </row>
@@ -3862,12 +4257,15 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>-0.1986183938815447</v>
+        <v>-0.1986183938815465</v>
       </c>
       <c r="E132" t="n">
+        <v>9.617711067095589e-17</v>
+      </c>
+      <c r="F132" t="n">
         <v>-0.007150596032249277</v>
       </c>
-      <c r="F132" t="n">
+      <c r="G132" t="n">
         <v>4.673366203506183</v>
       </c>
     </row>
@@ -3888,12 +4286,15 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>-0.03409571831480895</v>
+        <v>-0.03409571831480862</v>
       </c>
       <c r="E133" t="n">
+        <v>0.1619512751628985</v>
+      </c>
+      <c r="F133" t="n">
         <v>-0.1001975428905659</v>
       </c>
-      <c r="F133" t="n">
+      <c r="G133" t="n">
         <v>108.9023335906586</v>
       </c>
     </row>
@@ -3917,9 +4318,12 @@
         <v>-0.1837864154662072</v>
       </c>
       <c r="E134" t="n">
+        <v>1.389790702046246e-13</v>
+      </c>
+      <c r="F134" t="n">
         <v>-0.1330232297353136</v>
       </c>
-      <c r="F134" t="n">
+      <c r="G134" t="n">
         <v>39.30997329274634</v>
       </c>
     </row>
@@ -3940,12 +4344,15 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>0.4440572205730415</v>
+        <v>0.4440572205730404</v>
       </c>
       <c r="E135" t="n">
+        <v>1.536102938079895e-81</v>
+      </c>
+      <c r="F135" t="n">
         <v>0.07877297888052079</v>
       </c>
-      <c r="F135" t="n">
+      <c r="G135" t="n">
         <v>24.85073634646552</v>
       </c>
     </row>
@@ -3966,12 +4373,15 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>0.05163052703048924</v>
+        <v>0.05163052703048915</v>
       </c>
       <c r="E136" t="n">
+        <v>0.03526445147314126</v>
+      </c>
+      <c r="F136" t="n">
         <v>0.00585618043679528</v>
       </c>
-      <c r="F136" t="n">
+      <c r="G136" t="n">
         <v>32.00287525715441</v>
       </c>
     </row>
@@ -3992,12 +4402,15 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>0.3874231065049711</v>
+        <v>0.3874231065049687</v>
       </c>
       <c r="E137" t="n">
+        <v>7.348722445669617e-61</v>
+      </c>
+      <c r="F137" t="n">
         <v>0.2253882267331795</v>
       </c>
-      <c r="F137" t="n">
+      <c r="G137" t="n">
         <v>78.09284068299461</v>
       </c>
     </row>
@@ -4018,12 +4431,15 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>0.2287688854373352</v>
+        <v>0.2287688854373361</v>
       </c>
       <c r="E138" t="n">
+        <v>2.198244747089928e-20</v>
+      </c>
+      <c r="F138" t="n">
         <v>0.0465407782355654</v>
       </c>
-      <c r="F138" t="n">
+      <c r="G138" t="n">
         <v>5.192082036837154</v>
       </c>
     </row>
@@ -4044,12 +4460,15 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>-0.188212657795817</v>
+        <v>-0.1882126577958195</v>
       </c>
       <c r="E139" t="n">
+        <v>4.042854398028197e-14</v>
+      </c>
+      <c r="F139" t="n">
         <v>-0.01441076247647599</v>
       </c>
-      <c r="F139" t="n">
+      <c r="G139" t="n">
         <v>12.46538770642882</v>
       </c>
     </row>
@@ -4070,12 +4489,15 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>0.1368778098993485</v>
+        <v>0.136877809899348</v>
       </c>
       <c r="E140" t="n">
+        <v>1.225680817148713e-08</v>
+      </c>
+      <c r="F140" t="n">
         <v>0.03227955924848217</v>
       </c>
-      <c r="F140" t="n">
+      <c r="G140" t="n">
         <v>137.7688325456959</v>
       </c>
     </row>
@@ -4096,12 +4518,15 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>0.05964394172918489</v>
+        <v>0.05964394172918537</v>
       </c>
       <c r="E141" t="n">
+        <v>0.01720578437370256</v>
+      </c>
+      <c r="F141" t="n">
         <v>0.04672954429087886</v>
       </c>
-      <c r="F141" t="n">
+      <c r="G141" t="n">
         <v>54.52356225929744</v>
       </c>
     </row>
@@ -4122,12 +4547,15 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>0.1747121341730716</v>
+        <v>0.1747121341730714</v>
       </c>
       <c r="E142" t="n">
+        <v>1.059126773278021e-12</v>
+      </c>
+      <c r="F142" t="n">
         <v>14.83833072087769</v>
       </c>
-      <c r="F142" t="n">
+      <c r="G142" t="n">
         <v>-564.843345277103</v>
       </c>
     </row>
@@ -4148,12 +4576,15 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>-0.1215152795129237</v>
+        <v>-0.1215152795129255</v>
       </c>
       <c r="E143" t="n">
+        <v>1.203798199125561e-06</v>
+      </c>
+      <c r="F143" t="n">
         <v>-0.02287474412293345</v>
       </c>
-      <c r="F143" t="n">
+      <c r="G143" t="n">
         <v>15.89480264055495</v>
       </c>
     </row>
@@ -4174,12 +4605,15 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>-0.1050653386325091</v>
+        <v>-0.1050653386325081</v>
       </c>
       <c r="E144" t="n">
+        <v>1.750783960242217e-05</v>
+      </c>
+      <c r="F144" t="n">
         <v>-0.4874309254074222</v>
       </c>
-      <c r="F144" t="n">
+      <c r="G144" t="n">
         <v>249.010542039488</v>
       </c>
     </row>
@@ -4200,12 +4634,15 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>-0.3276694873343138</v>
+        <v>-0.3276694873343143</v>
       </c>
       <c r="E145" t="n">
+        <v>4.829497684077533e-43</v>
+      </c>
+      <c r="F145" t="n">
         <v>-0.01287056033578543</v>
       </c>
-      <c r="F145" t="n">
+      <c r="G145" t="n">
         <v>5.273490779049622</v>
       </c>
     </row>
@@ -4226,12 +4663,15 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>-0.257528473620146</v>
+        <v>-0.2575284736201461</v>
       </c>
       <c r="E146" t="n">
+        <v>1.125245003431776e-26</v>
+      </c>
+      <c r="F146" t="n">
         <v>-0.03585062416395923</v>
       </c>
-      <c r="F146" t="n">
+      <c r="G146" t="n">
         <v>16.91308160379133</v>
       </c>
     </row>
@@ -4252,12 +4692,15 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>-0.1694494544984708</v>
+        <v>-0.1694494544984721</v>
       </c>
       <c r="E147" t="n">
+        <v>1.554484335596173e-12</v>
+      </c>
+      <c r="F147" t="n">
         <v>-1.359799224260106</v>
       </c>
-      <c r="F147" t="n">
+      <c r="G147" t="n">
         <v>244.9046352483275</v>
       </c>
     </row>
@@ -4281,9 +4724,12 @@
         <v>-0.1443574080951515</v>
       </c>
       <c r="E148" t="n">
+        <v>1.828637356135576e-09</v>
+      </c>
+      <c r="F148" t="n">
         <v>-0.005653142260232395</v>
       </c>
-      <c r="F148" t="n">
+      <c r="G148" t="n">
         <v>7.272878646848211</v>
       </c>
     </row>
@@ -4304,12 +4750,15 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>-0.1759566167103769</v>
+        <v>-0.1759566167103785</v>
       </c>
       <c r="E149" t="n">
+        <v>1.472734975218322e-12</v>
+      </c>
+      <c r="F149" t="n">
         <v>-0.03149387746972929</v>
       </c>
-      <c r="F149" t="n">
+      <c r="G149" t="n">
         <v>9.149096205842858</v>
       </c>
     </row>
@@ -4330,12 +4779,15 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>0.04398290498586951</v>
+        <v>0.04398290498586911</v>
       </c>
       <c r="E150" t="n">
+        <v>0.06860718908239383</v>
+      </c>
+      <c r="F150" t="n">
         <v>0.02926182477013905</v>
       </c>
-      <c r="F150" t="n">
+      <c r="G150" t="n">
         <v>0.5799971006524678</v>
       </c>
     </row>
@@ -4356,12 +4808,15 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>0.2884440160449896</v>
+        <v>0.2884440160449894</v>
       </c>
       <c r="E151" t="n">
+        <v>3.238981173901262e-34</v>
+      </c>
+      <c r="F151" t="n">
         <v>0.2819908824075454</v>
       </c>
-      <c r="F151" t="n">
+      <c r="G151" t="n">
         <v>8.922225559842182</v>
       </c>
     </row>
@@ -4382,12 +4837,15 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>-0.3557821173236949</v>
+        <v>-0.3557821173236916</v>
       </c>
       <c r="E152" t="n">
+        <v>3.216363415654838e-52</v>
+      </c>
+      <c r="F152" t="n">
         <v>-382.294138501672</v>
       </c>
-      <c r="F152" t="n">
+      <c r="G152" t="n">
         <v>73225.89932019483</v>
       </c>
     </row>
@@ -4408,12 +4866,15 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>-0.008248050520238668</v>
+        <v>-0.008248050520238682</v>
       </c>
       <c r="E153" t="n">
+        <v>0.7331556994806739</v>
+      </c>
+      <c r="F153" t="n">
         <v>-0.002967999586059057</v>
       </c>
-      <c r="F153" t="n">
+      <c r="G153" t="n">
         <v>4.603179805964225</v>
       </c>
     </row>
@@ -4434,12 +4895,15 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>-0.06007328024722637</v>
+        <v>-0.06007328024722561</v>
       </c>
       <c r="E154" t="n">
+        <v>0.01294371842541409</v>
+      </c>
+      <c r="F154" t="n">
         <v>-1.694696472582815</v>
       </c>
-      <c r="F154" t="n">
+      <c r="G154" t="n">
         <v>698.0454073095029</v>
       </c>
     </row>
@@ -4460,12 +4924,15 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>0.1206365011201264</v>
+        <v>0.1206365011201255</v>
       </c>
       <c r="E155" t="n">
+        <v>5.595573156274529e-07</v>
+      </c>
+      <c r="F155" t="n">
         <v>0.3083595936003687</v>
       </c>
-      <c r="F155" t="n">
+      <c r="G155" t="n">
         <v>-11.79587364066742</v>
       </c>
     </row>
@@ -4486,12 +4953,15 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>0.05704369537312777</v>
+        <v>0.05704369537312676</v>
       </c>
       <c r="E156" t="n">
+        <v>0.01828646370878756</v>
+      </c>
+      <c r="F156" t="n">
         <v>9.549666086328358</v>
       </c>
-      <c r="F156" t="n">
+      <c r="G156" t="n">
         <v>1401.620336813843</v>
       </c>
     </row>
@@ -4512,12 +4982,15 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>-0.03836279917487222</v>
+        <v>-0.03836279917487207</v>
       </c>
       <c r="E157" t="n">
+        <v>0.1126776004172107</v>
+      </c>
+      <c r="F157" t="n">
         <v>-0.1142000768133131</v>
       </c>
-      <c r="F157" t="n">
+      <c r="G157" t="n">
         <v>102.5582444805805</v>
       </c>
     </row>
@@ -4538,12 +5011,15 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>-0.3215112440477141</v>
+        <v>-0.3215112440477165</v>
       </c>
       <c r="E158" t="n">
+        <v>1.891763387606945e-30</v>
+      </c>
+      <c r="F158" t="n">
         <v>-0.013171043001362</v>
       </c>
-      <c r="F158" t="n">
+      <c r="G158" t="n">
         <v>1.878561305039191</v>
       </c>
     </row>
@@ -4564,12 +5040,15 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>0.004078041281189172</v>
+        <v>0.004078041281189523</v>
       </c>
       <c r="E159" t="n">
+        <v>0.8838870765393262</v>
+      </c>
+      <c r="F159" t="n">
         <v>0.001517891745783763</v>
       </c>
-      <c r="F159" t="n">
+      <c r="G159" t="n">
         <v>13.30157361098974</v>
       </c>
     </row>
@@ -4590,12 +5069,15 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>-0.1883612604836018</v>
+        <v>-0.1883612604836034</v>
       </c>
       <c r="E160" t="n">
+        <v>8.624756378328933e-13</v>
+      </c>
+      <c r="F160" t="n">
         <v>-153.7994169955515</v>
       </c>
-      <c r="F160" t="n">
+      <c r="G160" t="n">
         <v>47060.74211682854</v>
       </c>
     </row>
@@ -4616,12 +5098,15 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>-0.1507439664864463</v>
+        <v>-0.1507439664864479</v>
       </c>
       <c r="E161" t="n">
+        <v>1.169703313439326e-08</v>
+      </c>
+      <c r="F161" t="n">
         <v>-0.7013257464101743</v>
       </c>
-      <c r="F161" t="n">
+      <c r="G161" t="n">
         <v>279.1819409889503</v>
       </c>
     </row>
@@ -4642,12 +5127,15 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>-0.007716878345361988</v>
+        <v>-0.007716878345361729</v>
       </c>
       <c r="E162" t="n">
+        <v>0.7624268639064373</v>
+      </c>
+      <c r="F162" t="n">
         <v>-1.961260600102414e-05</v>
       </c>
-      <c r="F162" t="n">
+      <c r="G162" t="n">
         <v>0.04832355498642627</v>
       </c>
     </row>
@@ -4668,12 +5156,15 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>0.01442410355878415</v>
+        <v>0.01442410355878393</v>
       </c>
       <c r="E163" t="n">
+        <v>0.572032673801279</v>
+      </c>
+      <c r="F163" t="n">
         <v>3.20568713844246e-05</v>
       </c>
-      <c r="F163" t="n">
+      <c r="G163" t="n">
         <v>0.03194173498259709</v>
       </c>
     </row>
@@ -4694,12 +5185,15 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>-0.1209538252888894</v>
+        <v>-0.1209538252888889</v>
       </c>
       <c r="E164" t="n">
+        <v>1.979006214669655e-06</v>
+      </c>
+      <c r="F164" t="n">
         <v>-4.53294255033881e-05</v>
       </c>
-      <c r="F164" t="n">
+      <c r="G164" t="n">
         <v>0.0101780106622984</v>
       </c>
     </row>
@@ -4720,12 +5214,15 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>-0.1481981683215036</v>
+        <v>-0.1481981683215028</v>
       </c>
       <c r="E165" t="n">
+        <v>5.296334414360217e-09</v>
+      </c>
+      <c r="F165" t="n">
         <v>-0.00236828122858379</v>
       </c>
-      <c r="F165" t="n">
+      <c r="G165" t="n">
         <v>0.4145026229702803</v>
       </c>
     </row>
@@ -4746,12 +5243,15 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>-0.06067753412631344</v>
+        <v>-0.06067753412631297</v>
       </c>
       <c r="E166" t="n">
+        <v>0.01735520886423814</v>
+      </c>
+      <c r="F166" t="n">
         <v>-1.149734456849739e-05</v>
       </c>
-      <c r="F166" t="n">
+      <c r="G166" t="n">
         <v>0.002304491187772159</v>
       </c>
     </row>
@@ -4772,12 +5272,15 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>-0.1509889482989646</v>
+        <v>-0.1509889482989639</v>
       </c>
       <c r="E167" t="n">
+        <v>2.701504858383854e-09</v>
+      </c>
+      <c r="F167" t="n">
         <v>-0.002326810205125916</v>
       </c>
-      <c r="F167" t="n">
+      <c r="G167" t="n">
         <v>0.397957226088696</v>
       </c>
     </row>
@@ -4798,12 +5301,15 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>0.06629871443973682</v>
+        <v>0.06629871443973677</v>
       </c>
       <c r="E168" t="n">
+        <v>0.009323456466803033</v>
+      </c>
+      <c r="F168" t="n">
         <v>0.0007374343078562541</v>
       </c>
-      <c r="F168" t="n">
+      <c r="G168" t="n">
         <v>0.1420948189072384</v>
       </c>
     </row>
@@ -4824,12 +5330,15 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>0.05074121478660511</v>
+        <v>0.05074121478660475</v>
       </c>
       <c r="E169" t="n">
+        <v>0.04670656558252619</v>
+      </c>
+      <c r="F169" t="n">
         <v>0.0005367648499286543</v>
       </c>
-      <c r="F169" t="n">
+      <c r="G169" t="n">
         <v>0.1461817255475325</v>
       </c>
     </row>
@@ -4850,12 +5359,15 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>0.1688753510634723</v>
+        <v>0.1688753510634714</v>
       </c>
       <c r="E170" t="n">
+        <v>2.67904047857489e-11</v>
+      </c>
+      <c r="F170" t="n">
         <v>0.0001026838330958209</v>
       </c>
-      <c r="F170" t="n">
+      <c r="G170" t="n">
         <v>0.0002421773041344829</v>
       </c>
     </row>
@@ -4876,12 +5388,15 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>0.06602617339293813</v>
+        <v>0.06602617339293805</v>
       </c>
       <c r="E171" t="n">
+        <v>0.007263422280508393</v>
+      </c>
+      <c r="F171" t="n">
         <v>0.0007058883466280727</v>
       </c>
-      <c r="F171" t="n">
+      <c r="G171" t="n">
         <v>0.6528603136767515</v>
       </c>
     </row>
@@ -4902,12 +5417,15 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>-0.06783450298374334</v>
+        <v>-0.06783450298374236</v>
       </c>
       <c r="E172" t="n">
+        <v>0.005811875989270215</v>
+      </c>
+      <c r="F172" t="n">
         <v>-0.0005584093519391032</v>
       </c>
-      <c r="F172" t="n">
+      <c r="G172" t="n">
         <v>0.204253740056409</v>
       </c>
     </row>
@@ -4928,12 +5446,15 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>-0.01348317105183719</v>
+        <v>-0.01348317105183706</v>
       </c>
       <c r="E173" t="n">
+        <v>0.5839453593892567</v>
+      </c>
+      <c r="F173" t="n">
         <v>-2.332293692915648e-05</v>
       </c>
-      <c r="F173" t="n">
+      <c r="G173" t="n">
         <v>0.008963323354401406</v>
       </c>
     </row>
@@ -4954,12 +5475,15 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>0.01828597683224142</v>
+        <v>0.01828597683224159</v>
       </c>
       <c r="E174" t="n">
+        <v>0.4576454939526712</v>
+      </c>
+      <c r="F174" t="n">
         <v>0.0001187190345947708</v>
       </c>
-      <c r="F174" t="n">
+      <c r="G174" t="n">
         <v>0.9286763540903126</v>
       </c>
     </row>
@@ -4980,12 +5504,15 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>-0.1096338299703589</v>
+        <v>-0.1096338299703583</v>
       </c>
       <c r="E175" t="n">
+        <v>7.964318953442364e-06</v>
+      </c>
+      <c r="F175" t="n">
         <v>-0.0005170891509049643</v>
       </c>
-      <c r="F175" t="n">
+      <c r="G175" t="n">
         <v>0.9919183090837609</v>
       </c>
     </row>
@@ -5006,12 +5533,15 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>0.1699471890458223</v>
+        <v>0.1699471890458217</v>
       </c>
       <c r="E176" t="n">
+        <v>3.579106237357804e-12</v>
+      </c>
+      <c r="F176" t="n">
         <v>0.0003748004377726436</v>
       </c>
-      <c r="F176" t="n">
+      <c r="G176" t="n">
         <v>0.01224063666821336</v>
       </c>
     </row>
@@ -5032,12 +5562,15 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>-0.0140968898276271</v>
+        <v>-0.01409688982762699</v>
       </c>
       <c r="E177" t="n">
+        <v>0.5804139460183866</v>
+      </c>
+      <c r="F177" t="n">
         <v>-0.00112839104555257</v>
       </c>
-      <c r="F177" t="n">
+      <c r="G177" t="n">
         <v>0.3111331673493505</v>
       </c>
     </row>
@@ -5058,12 +5591,15 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>-0.003222309882073915</v>
+        <v>-0.003222309882073781</v>
       </c>
       <c r="E178" t="n">
+        <v>0.912477854116487</v>
+      </c>
+      <c r="F178" t="n">
         <v>-9.679672851169731e-06</v>
       </c>
-      <c r="F178" t="n">
+      <c r="G178" t="n">
         <v>0.03017613442919646</v>
       </c>
     </row>
@@ -5084,12 +5620,15 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>-0.3227681727922428</v>
+        <v>-0.3227681727922436</v>
       </c>
       <c r="E179" t="n">
+        <v>1.868087433590159e-38</v>
+      </c>
+      <c r="F179" t="n">
         <v>-0.004882532717095758</v>
       </c>
-      <c r="F179" t="n">
+      <c r="G179" t="n">
         <v>0.6620951700473559</v>
       </c>
     </row>
@@ -5110,12 +5649,15 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>-0.1213367834486795</v>
+        <v>-0.12133678344868</v>
       </c>
       <c r="E180" t="n">
+        <v>1.793625048530128e-06</v>
+      </c>
+      <c r="F180" t="n">
         <v>-0.002495959903902441</v>
       </c>
-      <c r="F180" t="n">
+      <c r="G180" t="n">
         <v>0.5495132621669275</v>
       </c>
     </row>
@@ -5136,12 +5678,15 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>-0.1728439871863883</v>
+        <v>-0.1728439871863879</v>
       </c>
       <c r="E181" t="n">
+        <v>9.840150651823107e-12</v>
+      </c>
+      <c r="F181" t="n">
         <v>-0.0009929709793007754</v>
       </c>
-      <c r="F181" t="n">
+      <c r="G181" t="n">
         <v>0.1181904119437772</v>
       </c>
     </row>
@@ -5162,12 +5707,15 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>-0.3229937104100565</v>
+        <v>-0.3229937104100566</v>
       </c>
       <c r="E182" t="n">
+        <v>1.001221714256905e-38</v>
+      </c>
+      <c r="F182" t="n">
         <v>-0.01182466253437423</v>
       </c>
-      <c r="F182" t="n">
+      <c r="G182" t="n">
         <v>1.75604640527364</v>
       </c>
     </row>
@@ -5191,9 +5739,12 @@
         <v>-0.02645926822889044</v>
       </c>
       <c r="E183" t="n">
+        <v>0.3006819670327755</v>
+      </c>
+      <c r="F183" t="n">
         <v>-7.984521037026649e-05</v>
       </c>
-      <c r="F183" t="n">
+      <c r="G183" t="n">
         <v>0.02281989101628075</v>
       </c>
     </row>
@@ -5214,12 +5765,15 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>0.003664247193495894</v>
+        <v>0.003664247193495878</v>
       </c>
       <c r="E184" t="n">
+        <v>0.8860494034342657</v>
+      </c>
+      <c r="F184" t="n">
         <v>0.0001362730759300121</v>
       </c>
-      <c r="F184" t="n">
+      <c r="G184" t="n">
         <v>0.04028191853857838</v>
       </c>
     </row>
@@ -5240,12 +5794,15 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>-0.549235167672344</v>
+        <v>-0.5492351676723429</v>
       </c>
       <c r="E185" t="n">
+        <v>2.28433262909034e-121</v>
+      </c>
+      <c r="F185" t="n">
         <v>-0.003253262345552592</v>
       </c>
-      <c r="F185" t="n">
+      <c r="G185" t="n">
         <v>0.302552846751017</v>
       </c>
     </row>
@@ -5266,12 +5823,15 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>-0.1289073071240888</v>
+        <v>-0.1289073071240897</v>
       </c>
       <c r="E186" t="n">
+        <v>4.172971382264539e-07</v>
+      </c>
+      <c r="F186" t="n">
         <v>-0.002888347957576476</v>
       </c>
-      <c r="F186" t="n">
+      <c r="G186" t="n">
         <v>0.6094865057147881</v>
       </c>
     </row>
@@ -5292,12 +5852,15 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>-0.3101941965824764</v>
+        <v>-0.3101941965824768</v>
       </c>
       <c r="E187" t="n">
+        <v>1.062238795249114e-35</v>
+      </c>
+      <c r="F187" t="n">
         <v>-0.01548724373271256</v>
       </c>
-      <c r="F187" t="n">
+      <c r="G187" t="n">
         <v>2.488532169179194</v>
       </c>
     </row>
@@ -5318,12 +5881,15 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>-0.1802689012754137</v>
+        <v>-0.1802689012754138</v>
       </c>
       <c r="E188" t="n">
+        <v>1.173829311450461e-12</v>
+      </c>
+      <c r="F188" t="n">
         <v>-0.001692530861223958</v>
       </c>
-      <c r="F188" t="n">
+      <c r="G188" t="n">
         <v>0.2275511624384335</v>
       </c>
     </row>
@@ -5344,12 +5910,15 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>-0.01851347607482039</v>
+        <v>-0.01851347607482058</v>
       </c>
       <c r="E189" t="n">
+        <v>0.4516572757620559</v>
+      </c>
+      <c r="F189" t="n">
         <v>-0.0001098355520555995</v>
       </c>
-      <c r="F189" t="n">
+      <c r="G189" t="n">
         <v>0.08094634674593733</v>
       </c>
     </row>
@@ -5370,12 +5939,15 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>0.08128288004792074</v>
+        <v>0.08128288004792067</v>
       </c>
       <c r="E190" t="n">
+        <v>0.0009339461135393155</v>
+      </c>
+      <c r="F190" t="n">
         <v>0.0007292672331933764</v>
       </c>
-      <c r="F190" t="n">
+      <c r="G190" t="n">
         <v>0.2077507045365315</v>
       </c>
     </row>
@@ -5396,12 +5968,15 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>-0.1046711525115162</v>
+        <v>-0.1046711525115163</v>
       </c>
       <c r="E191" t="n">
+        <v>1.983794741248562e-05</v>
+      </c>
+      <c r="F191" t="n">
         <v>-0.001065793874140921</v>
       </c>
-      <c r="F191" t="n">
+      <c r="G191" t="n">
         <v>0.7423265732197371</v>
       </c>
     </row>
@@ -5422,12 +5997,15 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>-0.1435912314777594</v>
+        <v>-0.1435912314777592</v>
       </c>
       <c r="E192" t="n">
+        <v>4.422790837660643e-09</v>
+      </c>
+      <c r="F192" t="n">
         <v>-0.001773350871628821</v>
       </c>
-      <c r="F192" t="n">
+      <c r="G192" t="n">
         <v>0.8095513881679459</v>
       </c>
     </row>
@@ -5448,12 +6026,15 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>-0.02831414266153788</v>
+        <v>-0.02831414266153825</v>
       </c>
       <c r="E193" t="n">
+        <v>0.2507879177451217</v>
+      </c>
+      <c r="F193" t="n">
         <v>-0.0003903842516009967</v>
       </c>
-      <c r="F193" t="n">
+      <c r="G193" t="n">
         <v>0.6734798353858474</v>
       </c>
     </row>
@@ -5474,12 +6055,15 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>-0.06411151068004627</v>
+        <v>-0.06411151068004579</v>
       </c>
       <c r="E194" t="n">
+        <v>0.01193679767927763</v>
+      </c>
+      <c r="F194" t="n">
         <v>-0.000139234363639265</v>
       </c>
-      <c r="F194" t="n">
+      <c r="G194" t="n">
         <v>0.04673454653889213</v>
       </c>
     </row>
@@ -5500,12 +6084,15 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>0.1462536399429571</v>
+        <v>0.1462536399429557</v>
       </c>
       <c r="E195" t="n">
+        <v>8.404022484322445e-09</v>
+      </c>
+      <c r="F195" t="n">
         <v>0.0002257073728518721</v>
       </c>
-      <c r="F195" t="n">
+      <c r="G195" t="n">
         <v>0.01325636956524743</v>
       </c>
     </row>
@@ -5526,12 +6113,15 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>0.06067698318954934</v>
+        <v>0.06067698318954933</v>
       </c>
       <c r="E196" t="n">
+        <v>0.01735622784181386</v>
+      </c>
+      <c r="F196" t="n">
         <v>2.502341550901614e-05</v>
       </c>
-      <c r="F196" t="n">
+      <c r="G196" t="n">
         <v>0.005433832928890601</v>
       </c>
     </row>
@@ -5552,12 +6142,15 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>-0.1962146802883163</v>
+        <v>-0.1962146802883169</v>
       </c>
       <c r="E197" t="n">
+        <v>1.918734189705727e-11</v>
+      </c>
+      <c r="F197" t="n">
         <v>-0.01912441338151542</v>
       </c>
-      <c r="F197" t="n">
+      <c r="G197" t="n">
         <v>7.327463223817051</v>
       </c>
     </row>
@@ -5578,12 +6171,15 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>0.08365361934164928</v>
+        <v>0.08365361934164942</v>
       </c>
       <c r="E198" t="n">
+        <v>0.004672122434491194</v>
+      </c>
+      <c r="F198" t="n">
         <v>0.1103879643249066</v>
       </c>
-      <c r="F198" t="n">
+      <c r="G198" t="n">
         <v>45.76731623277696</v>
       </c>
     </row>
@@ -5604,12 +6200,15 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>0.3518574397719804</v>
+        <v>0.3518574397719808</v>
       </c>
       <c r="E199" t="n">
+        <v>8.521332905539843e-38</v>
+      </c>
+      <c r="F199" t="n">
         <v>1.337577007901848</v>
       </c>
-      <c r="F199" t="n">
+      <c r="G199" t="n">
         <v>86.50703996393379</v>
       </c>
     </row>
@@ -5630,12 +6229,15 @@
         </is>
       </c>
       <c r="D200" t="n">
-        <v>0.1359938515297753</v>
+        <v>0.1359938515297739</v>
       </c>
       <c r="E200" t="n">
+        <v>1.205938607307158e-06</v>
+      </c>
+      <c r="F200" t="n">
         <v>0.04506921610901298</v>
       </c>
-      <c r="F200" t="n">
+      <c r="G200" t="n">
         <v>-0.08735601505368473</v>
       </c>
     </row>
@@ -5656,12 +6258,15 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>0.1333803298883548</v>
+        <v>0.133380329888355</v>
       </c>
       <c r="E201" t="n">
+        <v>1.913069403578653e-06</v>
+      </c>
+      <c r="F201" t="n">
         <v>0.006351938176384212</v>
       </c>
-      <c r="F201" t="n">
+      <c r="G201" t="n">
         <v>0.7576522807263875</v>
       </c>
     </row>
